--- a/fuentes/contenidos/grado11/guion06/SolicitudGraficaMA_11_06_CO_REC160.xlsx
+++ b/fuentes/contenidos/grado11/guion06/SolicitudGraficaMA_11_06_CO_REC160.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joan/Dropbox/Aula planeta/Entregas/Entrega 25 (cuenta para agosto) X/REC160 (M8A)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado11\guion06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="1700" windowWidth="19200" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="197">
   <si>
     <t>Fecha:</t>
   </si>
@@ -598,46 +590,38 @@
     <t>Trabajar un video</t>
   </si>
   <si>
-    <t>MA_11_06_REC160_CO</t>
-  </si>
-  <si>
-    <t>La probabilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ver descripción de la imagen </t>
+    <t>La estadística y la probabilidad</t>
+  </si>
+  <si>
+    <t>MA_11_06_REC130</t>
+  </si>
+  <si>
+    <t>ver descricpción de la imagen</t>
   </si>
   <si>
     <t>Ilustración</t>
   </si>
   <si>
-    <t>dados y monedas, imagen de la pregunta 1</t>
-  </si>
-  <si>
-    <t>dados y monedas, imagen de la pregunta 2</t>
-  </si>
-  <si>
-    <t>canicas, imagen de la pregunta 3</t>
-  </si>
-  <si>
-    <t>canicas, imagen de la pregunta 4</t>
-  </si>
-  <si>
-    <t>árbol de cara y sello, imagen de la pregunta 5</t>
-  </si>
-  <si>
-    <t>árbol de cara y sello, imagen de la pregunta 6</t>
-  </si>
-  <si>
-    <t>comida, imagen de la pregunta 7</t>
-  </si>
-  <si>
-    <t>comida, imagen de la pregunta 8</t>
-  </si>
-  <si>
-    <t>diagrama de prendas, imagen de la pregunta 9</t>
-  </si>
-  <si>
-    <t>diagrama de prendas, imagen de la pregunta 10</t>
+    <t>Igual a la anterior IMG01</t>
+  </si>
+  <si>
+    <t>Igual a la anterior IMG03</t>
+  </si>
+  <si>
+    <t>Utilizar las fotografías para construir la imagen.
+275243057; 
+203635594; 
+294197054; 
+74042911</t>
+  </si>
+  <si>
+    <t>Igual a imagen anterior 07</t>
+  </si>
+  <si>
+    <t>Igual a imagen anterior 09</t>
+  </si>
+  <si>
+    <t>Igual a imagen anterior 05</t>
   </si>
 </sst>
 </file>
@@ -647,7 +631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -807,11 +791,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1065,11 +1044,11 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1078,7 +1057,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1086,17 +1065,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1106,7 +1085,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1114,12 +1093,12 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,18 +1107,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,11 +1148,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1183,10 +1162,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1196,7 +1175,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1270,16 +1249,16 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,23 +1266,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,6 +1525,10 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1678,7 +1661,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1785,7 +1767,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1804,20 +1786,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28172</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>645583</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1960563</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>4552950</xdr:rowOff>
+      <xdr:rowOff>1731317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1830,8 +1812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16379422" y="2084917"/>
-          <a:ext cx="3707744" cy="4552950"/>
+          <a:off x="14335126" y="2198688"/>
+          <a:ext cx="1341437" cy="1651942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,58 +1824,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>29878</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150813</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4013201</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2071689</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1230866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16381128" y="6847417"/>
-          <a:ext cx="3250956" cy="3992034"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>321734</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2520949</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1906,8 +1850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16435917" y="10943166"/>
-          <a:ext cx="3327400" cy="2489200"/>
+          <a:off x="13866813" y="4397375"/>
+          <a:ext cx="1920876" cy="1064179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1918,58 +1862,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>289984</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2552700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2333625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1841917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16404167" y="13557250"/>
-          <a:ext cx="3327400" cy="2489200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57785</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>736598</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3251200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1982,8 +1888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16409035" y="16181916"/>
-          <a:ext cx="3769146" cy="3208867"/>
+          <a:off x="13993812" y="5984333"/>
+          <a:ext cx="2055813" cy="1755147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1994,58 +1900,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69883</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31748</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>524933</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2540000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:rowOff>2682876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16421133" y="19452165"/>
-          <a:ext cx="3545383" cy="3018367"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>86744</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>823382</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4178301</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2058,8 +1926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16437994" y="22489583"/>
-          <a:ext cx="3826971" cy="4146551"/>
+          <a:off x="13890626" y="9987119"/>
+          <a:ext cx="2365374" cy="2570007"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2070,58 +1938,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>109341</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52916</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>421217</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2844799</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2500312</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2939623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16460591" y="26722916"/>
-          <a:ext cx="2576709" cy="2791883"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47798</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>281517</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3894665</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2134,46 +1964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16399048" y="29686249"/>
-          <a:ext cx="3324052" cy="3884083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>821268</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16414751" y="33655000"/>
-          <a:ext cx="4673600" cy="5461000"/>
+          <a:off x="13906500" y="13222406"/>
+          <a:ext cx="2309812" cy="2790280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2192,15 +1984,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2247,15 +2039,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1047750</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2302,15 +2094,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2359,13 +2151,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2412,15 +2204,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2467,15 +2259,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2522,15 +2314,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2897,34 +2689,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2943,19 +2735,19 @@
         <v>Ubicación de la imagen en el recurso M8A</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="77" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2974,15 +2766,15 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -3001,15 +2793,15 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="87"/>
+      <c r="C4" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -3033,13 +2825,13 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -3064,7 +2856,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3088,13 +2880,13 @@
         <v>M8A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="73" t="s">
-        <v>187</v>
+      <c r="C7" s="74" t="s">
+        <v>188</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3117,18 +2909,18 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -3144,7 +2936,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="38.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -3184,7 +2976,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="373" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -3204,7 +2996,7 @@
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_06_REC160_CO_IMG01n.png</v>
+        <v>MA_11_06_REC130_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3212,27 +3004,25 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_06_REC160_CO_IMG01a.png</v>
+        <v>MA_11_06_REC130_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="108" t="s">
-        <v>191</v>
-      </c>
+      <c r="J10" s="63"/>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="322" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="62" t="s">
         <v>189</v>
       </c>
       <c r="C11" s="20" t="str">
@@ -3247,7 +3037,7 @@
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>MA_11_06_REC160_CO_IMG02n.png</v>
+        <v>MA_11_06_REC130_IMG02n.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3255,14 +3045,14 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>MA_11_06_REC160_CO_IMG02a.png</v>
+        <v>MA_11_06_REC130_IMG02a.png</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J11" s="108" t="s">
-        <v>192</v>
+      <c r="J11" s="64" t="s">
+        <v>191</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -3270,12 +3060,12 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="203" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="62" t="s">
         <v>189</v>
       </c>
       <c r="C12" s="20" t="str">
@@ -3290,7 +3080,7 @@
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_11_06_REC160_CO_IMG03n.png</v>
+        <v>MA_11_06_REC130_IMG03n.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3298,27 +3088,27 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_11_06_REC160_CO_IMG03a.png</v>
+        <v>MA_11_06_REC130_IMG03a.png</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="64"/>
+      <c r="K12" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="62" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="20" t="str">
@@ -3333,7 +3123,7 @@
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_11_06_REC160_CO_IMG04n.png</v>
+        <v>MA_11_06_REC130_IMG04n.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3341,14 +3131,14 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_11_06_REC160_CO_IMG04a.png</v>
+        <v>MA_11_06_REC130_IMG04a.png</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="108" t="s">
-        <v>194</v>
+      <c r="J13" s="64" t="s">
+        <v>192</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -3356,12 +3146,12 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="258" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="62" t="s">
         <v>189</v>
       </c>
       <c r="C14" s="20" t="str">
@@ -3376,7 +3166,7 @@
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_11_06_REC160_CO_IMG05n.png</v>
+        <v>MA_11_06_REC130_IMG05n.png</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3384,27 +3174,25 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_11_06_REC160_CO_IMG05a.png</v>
+        <v>MA_11_06_REC130_IMG05a.png</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J14" s="108" t="s">
-        <v>195</v>
-      </c>
+      <c r="J14" s="64"/>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="239" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="62" t="s">
         <v>189</v>
       </c>
       <c r="C15" s="20" t="str">
@@ -3419,7 +3207,7 @@
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_11_06_REC160_CO_IMG06n.png</v>
+        <v>MA_11_06_REC130_IMG06n.png</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3427,13 +3215,13 @@
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_11_06_REC160_CO_IMG06a.png</v>
+        <v>MA_11_06_REC130_IMG06a.png</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="66" t="s">
         <v>196</v>
       </c>
       <c r="K15" s="66"/>
@@ -3442,13 +3230,13 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="332" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="108">
-        <v>408514171</v>
+      <c r="B16" s="62" t="s">
+        <v>189</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3462,7 +3250,7 @@
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_11_06_REC160_CO_IMG07n.png</v>
+        <v>MA_11_06_REC130_IMG07n.png</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3470,28 +3258,26 @@
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_11_06_REC160_CO_IMG07a.png</v>
+        <v>MA_11_06_REC130_IMG07a.png</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J16" s="108" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="237" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="108">
-        <v>408514171</v>
+      <c r="B17" s="62" t="s">
+        <v>189</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3505,7 +3291,7 @@
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_11_06_REC160_CO_IMG08n.png</v>
+        <v>MA_11_06_REC130_IMG08n.png</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3513,14 +3299,14 @@
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_11_06_REC160_CO_IMG08a.png</v>
+        <v>MA_11_06_REC130_IMG08a.png</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J17" s="108" t="s">
-        <v>198</v>
+      <c r="J17" s="66" t="s">
+        <v>194</v>
       </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
@@ -3528,12 +3314,12 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="313" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="62" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="20" t="str">
@@ -3548,7 +3334,7 @@
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_11_06_REC160_CO_IMG09n.png</v>
+        <v>MA_11_06_REC130_IMG09n.png</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3556,27 +3342,25 @@
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_11_06_REC160_CO_IMG09a.png</v>
+        <v>MA_11_06_REC130_IMG09a.png</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J18" s="108" t="s">
-        <v>199</v>
-      </c>
+      <c r="J18" s="66"/>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="62" t="s">
         <v>189</v>
       </c>
       <c r="C19" s="20" t="str">
@@ -3591,7 +3375,7 @@
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>MA_11_06_REC160_CO_IMG10n.png</v>
+        <v>MA_11_06_REC130_IMG10n.png</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -3599,22 +3383,22 @@
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_11_06_REC160_CO_IMG10a.png</v>
+        <v>MA_11_06_REC130_IMG10a.png</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J19" s="108" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" s="67"/>
+      <c r="J19" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3649,7 +3433,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3684,7 +3468,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3713,13 +3497,13 @@
         <v/>
       </c>
       <c r="J22" s="63"/>
-      <c r="K22" s="68"/>
+      <c r="K22" s="69"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3754,7 +3538,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3789,7 +3573,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3820,7 +3604,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3851,7 +3635,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3883,7 +3667,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3914,7 +3698,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3945,7 +3729,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3976,7 +3760,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4007,7 +3791,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4038,7 +3822,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4069,7 +3853,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4101,7 +3885,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4133,7 +3917,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4165,7 +3949,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4193,10 +3977,10 @@
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="69"/>
+      <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4224,10 +4008,10 @@
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="70"/>
+      <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4258,7 +4042,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4289,7 +4073,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4320,7 +4104,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4351,7 +4135,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4382,7 +4166,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4413,7 +4197,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4444,7 +4228,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4475,7 +4259,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4506,7 +4290,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4537,7 +4321,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4568,7 +4352,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4599,7 +4383,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4630,7 +4414,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4661,7 +4445,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4692,7 +4476,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4723,7 +4507,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4754,7 +4538,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4785,7 +4569,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4816,7 +4600,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4847,7 +4631,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4878,7 +4662,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4909,7 +4693,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4940,7 +4724,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4971,7 +4755,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5002,7 +4786,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5033,7 +4817,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5064,7 +4848,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5095,7 +4879,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5126,7 +4910,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5157,7 +4941,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5188,7 +4972,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5219,7 +5003,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5250,7 +5034,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5281,7 +5065,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5312,7 +5096,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5343,7 +5127,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5374,7 +5158,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5405,7 +5189,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5436,7 +5220,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5467,7 +5251,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5498,7 +5282,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5529,7 +5313,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5560,7 +5344,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5591,7 +5375,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5622,7 +5406,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5653,7 +5437,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5684,7 +5468,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5715,7 +5499,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5746,7 +5530,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5777,7 +5561,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5808,7 +5592,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5839,7 +5623,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5870,7 +5654,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5901,7 +5685,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5932,7 +5716,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5963,7 +5747,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5994,7 +5778,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6025,7 +5809,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6056,7 +5840,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6087,7 +5871,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6118,7 +5902,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6149,7 +5933,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6180,7 +5964,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6211,7 +5995,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6242,7 +6026,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6273,7 +6057,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6304,7 +6088,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6335,7 +6119,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6366,7 +6150,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6445,56 +6229,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="22"/>
-    <col min="3" max="3" width="13.83203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="72.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11" style="22"/>
+    <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="22" customWidth="1"/>
+    <col min="5" max="7" width="11" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="22"/>
+    <col min="12" max="16384" width="11" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6509,7 +6293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6537,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6545,11 +6329,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6564,7 +6348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6586,7 +6370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6594,12 +6378,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6613,7 +6397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6632,7 +6416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6651,7 +6435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6670,7 +6454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
@@ -6681,7 +6465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6692,15 +6476,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="92" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6711,7 +6495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6728,17 +6512,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6746,7 +6530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6770,7 +6554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -6778,12 +6562,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="98" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6791,7 +6575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6799,12 +6583,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6812,7 +6596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -6831,7 +6615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6853,7 +6637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6870,122 +6654,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -7019,19 +6803,18 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7040,21 +6823,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:colOff>828675</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7063,21 +6845,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7086,21 +6867,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7109,21 +6889,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7132,21 +6911,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1047750</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -7155,25 +6933,23 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
 </worksheet>
 </file>
@@ -7187,56 +6963,56 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="22" customWidth="1"/>
     <col min="3" max="3" width="17" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="22"/>
+    <col min="11" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="106"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="I1" s="107"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
@@ -7244,7 +7020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -7269,7 +7045,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -7298,7 +7074,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -7327,7 +7103,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -7356,7 +7132,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -7381,7 +7157,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -7410,7 +7186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -7439,7 +7215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -7468,7 +7244,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -7493,14 +7269,14 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="73" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="42" t="s">
@@ -7522,7 +7298,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7551,7 +7327,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7574,33 +7350,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75" t="s">
+      <c r="G15" s="75"/>
+      <c r="H15" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="76" t="s">
+      <c r="I15" s="75"/>
+      <c r="J15" s="77" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7628,7 +7404,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7656,7 +7432,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -7682,7 +7458,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
@@ -7706,7 +7482,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
@@ -7730,7 +7506,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
@@ -7751,10 +7527,10 @@
       <c r="H21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="71"/>
+      <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
@@ -7778,7 +7554,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
@@ -7807,7 +7583,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -7828,9 +7604,9 @@
         <v>176</v>
       </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
@@ -7854,7 +7630,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
@@ -7883,7 +7659,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
@@ -7907,7 +7683,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
@@ -7931,7 +7707,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
@@ -7960,7 +7736,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
@@ -7983,7 +7759,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
@@ -8000,7 +7776,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
@@ -8015,7 +7791,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
@@ -8036,7 +7812,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
@@ -8053,7 +7829,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -8082,7 +7858,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -8111,7 +7887,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
@@ -8134,7 +7910,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
@@ -8157,13 +7933,13 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>108</v>
       </c>
@@ -8177,7 +7953,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>109</v>
       </c>
@@ -8191,7 +7967,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>110</v>
       </c>
@@ -8205,7 +7981,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -8219,7 +7995,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
@@ -8233,7 +8009,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>162</v>
       </c>

--- a/fuentes/contenidos/grado11/guion06/SolicitudGraficaMA_11_06_CO_REC160.xlsx
+++ b/fuentes/contenidos/grado11/guion06/SolicitudGraficaMA_11_06_CO_REC160.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="196">
   <si>
     <t>Fecha:</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>Ilustración</t>
-  </si>
-  <si>
-    <t>Igual a la anterior IMG01</t>
   </si>
   <si>
     <t>Igual a la anterior IMG03</t>
@@ -615,13 +612,13 @@
 74042911</t>
   </si>
   <si>
-    <t>Igual a imagen anterior 07</t>
-  </si>
-  <si>
-    <t>Igual a imagen anterior 09</t>
-  </si>
-  <si>
-    <t>Igual a imagen anterior 05</t>
+    <t>Imagen de dado lanzado al aire</t>
+  </si>
+  <si>
+    <t>Ver textos en Word</t>
+  </si>
+  <si>
+    <t>Ver texto en Word</t>
   </si>
 </sst>
 </file>
@@ -1901,19 +1898,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>174626</xdr:colOff>
+      <xdr:colOff>150812</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>112869</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2540000</xdr:colOff>
+      <xdr:colOff>2420938</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2682876</xdr:rowOff>
+      <xdr:rowOff>2832088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1926,8 +1923,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13890626" y="9987119"/>
-          <a:ext cx="2365374" cy="2570007"/>
+          <a:off x="13866812" y="8382000"/>
+          <a:ext cx="2270126" cy="2808276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1939,19 +1936,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149343</xdr:rowOff>
+      <xdr:colOff>134939</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2500312</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2939623</xdr:rowOff>
+      <xdr:colOff>2420939</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1778001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1964,8 +1961,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13906500" y="13222406"/>
-          <a:ext cx="2309812" cy="2790280"/>
+          <a:off x="13850939" y="13692188"/>
+          <a:ext cx="2286000" cy="1658938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2587624</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3242834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13787437" y="16644938"/>
+          <a:ext cx="2516187" cy="3203146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2607671</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1095375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13763625" y="19931062"/>
+          <a:ext cx="2560046" cy="1039813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,9 +2765,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3022,8 +3095,8 @@
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>189</v>
+      <c r="B11" s="62">
+        <v>171830099</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3052,7 +3125,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -3096,7 +3169,7 @@
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
@@ -3138,7 +3211,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -3187,7 +3260,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
@@ -3221,9 +3294,7 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J15" s="66" t="s">
-        <v>196</v>
-      </c>
+      <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
@@ -3271,13 +3342,13 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>189</v>
+      <c r="B17" s="62">
+        <v>117840919</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3305,10 +3376,10 @@
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J17" s="66" t="s">
+      <c r="J17" s="66"/>
+      <c r="K17" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
@@ -3355,7 +3426,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
@@ -3389,10 +3460,10 @@
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="67"/>
+      <c r="K19" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
